--- a/SchoolDistrictBilling/wwwroot/reportTemplates/YearEndReconciliation22.xlsx
+++ b/SchoolDistrictBilling/wwwroot/reportTemplates/YearEndReconciliation22.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Average Daily Membership</t>
   </si>
@@ -183,9 +183,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">          Total Amount Due for 2021-2022 School Year:</t>
-  </si>
-  <si>
     <t>RECONCILIATION REPORT FOR THE 2022-2023 SCHOOL YEAR</t>
   </si>
   <si>
@@ -201,8 +198,7 @@
     <t xml:space="preserve">            Total Paid to Date for 2022-2023 School Year:</t>
   </si>
   <si>
-    <t>1.  Do not include students that enrolled after
-     March 13, 2023.</t>
+    <t xml:space="preserve">          Total Amount Due for 2022-2023 School Year:</t>
   </si>
 </sst>
 </file>
@@ -214,7 +210,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -280,6 +276,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -528,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -701,6 +706,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,15 +1112,15 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="1" customWidth="1"/>
     <col min="5" max="7" width="18.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
@@ -1111,8 +1135,8 @@
         <v>12</v>
       </c>
       <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -1120,11 +1144,11 @@
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="E2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -1135,8 +1159,8 @@
         <v>15</v>
       </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -1146,8 +1170,8 @@
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -1213,7 +1237,7 @@
         <v>26</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="28" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -1254,7 +1278,7 @@
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G12" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H12" s="9">
         <f>ROUND(SUM(H10:H11),2)</f>
@@ -1285,7 +1309,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C16" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="42"/>
@@ -1340,7 +1364,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C22" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="45"/>
@@ -1414,7 +1438,7 @@
     </row>
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G30" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="9">
         <f>E28+F28-G28</f>
@@ -1445,9 +1469,7 @@
       <c r="C33" s="54"/>
     </row>
     <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="53" t="s">
-        <v>38</v>
-      </c>
+      <c r="A34" s="53"/>
       <c r="B34" s="54"/>
       <c r="C34" s="54"/>
     </row>
